--- a/doc/2조P-Nut테이블명세서.xlsx
+++ b/doc/2조P-Nut테이블명세서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f06cd82e8fa2b72d/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lunea\git\final_project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{B4D32BDA-47AE-4A6F-BA1B-C04DD3E4261D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5311253D-D6E7-4FAB-9B60-49AEBC3A0A86}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC85878-D808-4929-86DB-6F50F79F7A89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="124">
   <si>
     <t>Not Null</t>
   </si>
@@ -139,10 +139,6 @@
   </si>
   <si>
     <t>속성명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>'n'</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1022,109 +1018,109 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1468,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1482,59 +1478,59 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="36" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="37"/>
-    </row>
-    <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="38" t="s">
+      <c r="F6" s="58"/>
+      <c r="G6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="39"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="2:8" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="21" t="s">
@@ -1570,7 +1566,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>0</v>
@@ -1591,7 +1587,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>0</v>
@@ -1610,7 +1606,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>0</v>
@@ -1623,13 +1619,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>0</v>
@@ -1648,7 +1644,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>0</v>
@@ -1667,7 +1663,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>0</v>
@@ -1680,13 +1676,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1697,13 +1693,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>0</v>
@@ -1716,13 +1712,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>0</v>
@@ -1735,13 +1731,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1752,13 +1748,13 @@
         <v>11</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="25"/>
@@ -1774,38 +1770,38 @@
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="29"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="37"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="36"/>
     </row>
     <row r="21" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="55"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="38" t="s">
+      <c r="F21" s="58"/>
+      <c r="G21" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="39"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="2:8" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="21" t="s">
@@ -1835,13 +1831,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>0</v>
@@ -1856,13 +1852,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>0</v>
@@ -1880,38 +1876,38 @@
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="29"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="56"/>
+      <c r="G26" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="36"/>
+    </row>
+    <row r="27" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="54"/>
+      <c r="D27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="37"/>
-    </row>
-    <row r="27" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="38" t="s">
+      <c r="F27" s="58"/>
+      <c r="G27" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="39"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="2:8" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="21" t="s">
@@ -1941,13 +1937,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>0</v>
@@ -1965,17 +1961,17 @@
         <v>33</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1986,10 +1982,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>0</v>
@@ -2005,10 +2001,10 @@
         <v>12</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -2019,13 +2015,13 @@
         <v>5</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -2036,13 +2032,13 @@
         <v>6</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -2053,13 +2049,13 @@
         <v>7</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -2070,13 +2066,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -2087,13 +2083,13 @@
         <v>9</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -2104,13 +2100,13 @@
         <v>10</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>0</v>
@@ -2126,10 +2122,10 @@
         <v>17</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>0</v>
@@ -2147,38 +2143,38 @@
       <c r="H40" s="14"/>
     </row>
     <row r="41" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="29"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="32"/>
+      <c r="G41" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="36"/>
+    </row>
+    <row r="42" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="54"/>
+      <c r="D42" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="41"/>
-      <c r="G41" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" s="37"/>
-    </row>
-    <row r="42" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="38" t="s">
+      <c r="F42" s="34"/>
+      <c r="G42" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="39"/>
+      <c r="H42" s="38"/>
     </row>
     <row r="43" spans="2:8" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="21" t="s">
@@ -2208,13 +2204,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="E44" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>0</v>
@@ -2229,20 +2225,20 @@
         <v>2</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2253,10 +2249,10 @@
         <v>33</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>0</v>
@@ -2272,10 +2268,10 @@
         <v>30</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>0</v>
@@ -2288,13 +2284,13 @@
         <v>5</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="E48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>0</v>
@@ -2310,10 +2306,10 @@
         <v>12</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -2327,10 +2323,10 @@
         <v>13</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>0</v>
@@ -2346,10 +2342,10 @@
         <v>1</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>0</v>
@@ -2365,10 +2361,10 @@
         <v>17</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>0</v>
@@ -2386,38 +2382,38 @@
       <c r="H53" s="14"/>
     </row>
     <row r="54" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="45"/>
+      <c r="C54" s="28"/>
       <c r="D54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="32"/>
+      <c r="G54" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" s="36"/>
+    </row>
+    <row r="55" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="46"/>
+      <c r="D55" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E54" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="41"/>
-      <c r="G54" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" s="37"/>
-    </row>
-    <row r="55" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" s="46" t="s">
+      <c r="E55" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="47"/>
-      <c r="G55" s="48" t="s">
+      <c r="F55" s="48"/>
+      <c r="G55" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H55" s="49"/>
+      <c r="H55" s="50"/>
     </row>
     <row r="56" spans="2:8" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="3" t="s">
@@ -2447,20 +2443,20 @@
         <v>1</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2468,20 +2464,20 @@
         <v>2</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>0</v>
       </c>
       <c r="G58" s="25"/>
       <c r="H58" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2494,38 +2490,38 @@
       <c r="H59" s="14"/>
     </row>
     <row r="60" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="45"/>
+      <c r="C60" s="28"/>
       <c r="D60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="40"/>
+      <c r="G60" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" s="36"/>
+    </row>
+    <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="30"/>
+      <c r="D61" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E60" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="61"/>
-      <c r="G60" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="H60" s="37"/>
-    </row>
-    <row r="61" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E61" s="58" t="s">
+      <c r="E61" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F61" s="59"/>
-      <c r="G61" s="56" t="s">
+      <c r="F61" s="42"/>
+      <c r="G61" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H61" s="57"/>
+      <c r="H61" s="44"/>
     </row>
     <row r="62" spans="2:8" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="3" t="s">
@@ -2555,20 +2551,20 @@
         <v>1</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2576,20 +2572,20 @@
         <v>2</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F64" s="12" t="s">
         <v>0</v>
       </c>
       <c r="G64" s="25"/>
       <c r="H64" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2602,38 +2598,38 @@
       <c r="H65" s="14"/>
     </row>
     <row r="66" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="44" t="s">
+      <c r="B66" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="45"/>
+      <c r="C66" s="28"/>
       <c r="D66" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="32"/>
+      <c r="G66" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66" s="36"/>
+    </row>
+    <row r="67" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="30"/>
+      <c r="D67" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E66" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="41"/>
-      <c r="G66" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="H66" s="37"/>
-    </row>
-    <row r="67" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E67" s="42" t="s">
+      <c r="E67" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F67" s="43"/>
-      <c r="G67" s="38" t="s">
+      <c r="F67" s="34"/>
+      <c r="G67" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H67" s="39"/>
+      <c r="H67" s="38"/>
     </row>
     <row r="68" spans="2:8" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="3" t="s">
@@ -2663,20 +2659,20 @@
         <v>1</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G69" s="8"/>
       <c r="H69" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2684,20 +2680,20 @@
         <v>3</v>
       </c>
       <c r="C70" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D70" s="11" t="s">
-        <v>108</v>
-      </c>
       <c r="E70" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F70" s="12" t="s">
         <v>0</v>
       </c>
       <c r="G70" s="12"/>
       <c r="H70" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2710,38 +2706,38 @@
       <c r="H71" s="14"/>
     </row>
     <row r="72" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="44" t="s">
+      <c r="B72" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C72" s="45"/>
+      <c r="C72" s="28"/>
       <c r="D72" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="32"/>
+      <c r="G72" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H72" s="36"/>
+    </row>
+    <row r="73" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="30"/>
+      <c r="D73" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E72" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="41"/>
-      <c r="G72" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="H72" s="37"/>
-    </row>
-    <row r="73" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" s="51"/>
-      <c r="D73" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E73" s="42" t="s">
+      <c r="E73" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F73" s="43"/>
-      <c r="G73" s="38" t="s">
+      <c r="F73" s="34"/>
+      <c r="G73" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H73" s="39"/>
+      <c r="H73" s="38"/>
     </row>
     <row r="74" spans="2:8" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="3" t="s">
@@ -2771,20 +2767,20 @@
         <v>1</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2792,20 +2788,20 @@
         <v>12</v>
       </c>
       <c r="C76" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="E76" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G76" s="24"/>
       <c r="H76" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2813,22 +2809,20 @@
         <v>13</v>
       </c>
       <c r="C77" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="11" t="s">
-        <v>112</v>
-      </c>
       <c r="E77" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G77" s="25" t="s">
-        <v>38</v>
-      </c>
+      <c r="G77" s="25"/>
       <c r="H77" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2841,38 +2835,38 @@
       <c r="H78" s="14"/>
     </row>
     <row r="79" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="44" t="s">
+      <c r="B79" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C79" s="45"/>
+      <c r="C79" s="28"/>
       <c r="D79" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E79" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E79" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F79" s="41"/>
-      <c r="G79" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="H79" s="37"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H79" s="36"/>
     </row>
     <row r="80" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="50" t="s">
+      <c r="B80" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C80" s="51"/>
+      <c r="C80" s="30"/>
       <c r="D80" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E80" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E80" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F80" s="43"/>
-      <c r="G80" s="38" t="s">
+      <c r="F80" s="34"/>
+      <c r="G80" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H80" s="39"/>
+      <c r="H80" s="38"/>
     </row>
     <row r="81" spans="2:8" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B81" s="3" t="s">
@@ -2902,13 +2896,13 @@
         <v>1</v>
       </c>
       <c r="C82" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="E82" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>0</v>
@@ -2923,20 +2917,20 @@
         <v>2</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G83" s="8"/>
       <c r="H83" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2944,20 +2938,20 @@
         <v>3</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>0</v>
       </c>
       <c r="G84" s="8"/>
       <c r="H84" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2968,10 +2962,10 @@
         <v>30</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>0</v>
@@ -2987,10 +2981,10 @@
         <v>12</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
@@ -3004,10 +2998,10 @@
         <v>2</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>0</v>
@@ -3020,13 +3014,13 @@
         <v>7</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>0</v>
@@ -3045,7 +3039,7 @@
         <v>31</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>0</v>
@@ -3058,48 +3052,6 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -3113,6 +3065,48 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
